--- a/results/go/benchmark_result_groupwise.xlsx
+++ b/results/go/benchmark_result_groupwise.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="375" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="389" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -454,8 +454,8 @@
   </sheetPr>
   <dimension ref="A1:Y38"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="D7" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="M37" activeCellId="0" pane="topLeft" sqref="M37"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="K7" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="P36" activeCellId="0" pane="topLeft" sqref="P36"/>
     </sheetView>
   </sheetViews>
   <cols>
